--- a/doc/excel/培训/[sample_cet_project_obj]培训对象导入样表.xlsx
+++ b/doc/excel/培训/[sample_cet_project_obj]培训对象导入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目相关\功能\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2C315-090D-460C-B00E-EB0BAE541DA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6671D80B-58F5-4490-921D-2F9998AA83D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2595" windowWidth="8460" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="3045" windowWidth="20025" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -95,13 +95,30 @@
   <si>
     <t>201721070011</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时任职务属性</t>
+  </si>
+  <si>
+    <t>参训人身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双肩挑,支部书记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校领导</t>
+  </si>
+  <si>
+    <t>1、参训人身份请按照系统中已有的进行添加，多个身份用逗号分隔开。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -158,6 +175,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -203,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,9 +247,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -257,6 +279,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,85 +600,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="9" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C13:C1048576" xr:uid="{C52EBF07-5E11-43C8-A0B6-B951FC4C60B7}">
+      <formula1>"党委书记,校长,校领导,秘书长,总务长,校长助理,总会计师,机关正职,机关副职,机关党委正职, 机关党委副职,院系党委正职,院系党委副职,院系行政正职,院系行政副职,教辅单位党委正职,教辅单位党委副职,教辅单位行政正职,教辅单位行政副职,附属单位党委正职,附属单位党委副职,附属单位行政正职,附属单位行政副职 附属单位内设机构干部,经营性单位党委正职,经营性单位党委副职,经营性单位行政正职,经营性单位行政副职,离任校领导,考察对象,后备干部,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/doc/excel/培训/[sample_cet_project_obj]培训对象导入样表.xlsx
+++ b/doc/excel/培训/[sample_cet_project_obj]培训对象导入样表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\培训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6671D80B-58F5-4490-921D-2F9998AA83D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3045" windowWidth="20025" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="3045" windowWidth="20025" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,27 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>min liaom</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{481386CD-CDF8-4BD5-8DEF-A4FF27493650}">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参训人身份请按照系统中已有的进行添加，多个身份用逗号分隔开。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9FB5390A-8AEA-48BF-AF7F-02AF0A32AC92}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -81,22 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋兵聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萨达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201721070011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时任职务属性</t>
   </si>
   <si>
@@ -104,21 +102,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>时任单位及职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关副职</t>
+  </si>
+  <si>
+    <t>党委组织部副部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>双肩挑,支部书记</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校领导</t>
-  </si>
-  <si>
-    <t>1、参训人身份请按照系统中已有的进行添加，多个身份用逗号分隔开。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -181,29 +184,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEADDA9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -211,24 +209,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,14 +264,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,52 +580,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="9" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="26.875" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="9" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10"/>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -652,91 +637,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="1">
-    <mergeCell ref="B6:E12"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C13:C1048576" xr:uid="{C52EBF07-5E11-43C8-A0B6-B951FC4C60B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576 D2:D3">
       <formula1>"党委书记,校长,校领导,秘书长,总务长,校长助理,总会计师,机关正职,机关副职,机关党委正职, 机关党委副职,院系党委正职,院系党委副职,院系行政正职,院系行政副职,教辅单位党委正职,教辅单位党委副职,教辅单位行政正职,教辅单位行政副职,附属单位党委正职,附属单位党委副职,附属单位行政正职,附属单位行政副职 附属单位内设机构干部,经营性单位党委正职,经营性单位党委副职,经营性单位行政正职,经营性单位行政副职,离任校领导,考察对象,后备干部,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/excel/培训/[sample_cet_project_obj]培训对象导入样表.xlsx
+++ b/doc/excel/培训/[sample_cet_project_obj]培训对象导入样表.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t/>
   </si>
@@ -98,10 +98,6 @@
     <t>时任职务属性</t>
   </si>
   <si>
-    <t>参训人身份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时任单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,7 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双肩挑,支部书记</t>
+    <t>参训人身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,15 +174,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -264,7 +251,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,7 +571,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -611,13 +598,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -637,14 +624,12 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
